--- a/data/trans_orig/IP07C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FB48FD-DE21-40C2-AF87-659BDF3BFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE091BD-C389-4B54-A3A0-9EDA65EDA0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDA9117-EFFF-4964-9D0B-37948D3261A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39ED4454-FB0D-4B3A-B202-BB74167D48F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="562">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -77,1681 +77,1654 @@
     <t>47,9%</t>
   </si>
   <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9896EF46-1819-469A-9B11-2011AE3A48DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6071787A-0914-46CC-9A86-00C5FF65D2C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,7 +2574,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -2610,13 +2583,13 @@
         <v>100726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>329</v>
@@ -2625,13 +2598,13 @@
         <v>218184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2619,13 @@
         <v>88912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -2661,13 +2634,13 @@
         <v>80407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -2784,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2778,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2820,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2835,7 +2808,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2864,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2903,13 +2876,13 @@
         <v>26741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -2918,13 +2891,13 @@
         <v>26922</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2933,13 +2906,13 @@
         <v>53664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2927,13 @@
         <v>20283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2969,13 +2942,13 @@
         <v>22426</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -2984,13 +2957,13 @@
         <v>42710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2978,13 @@
         <v>2016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3020,13 +2993,13 @@
         <v>4898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3035,13 +3008,13 @@
         <v>6914</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3077,7 +3050,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3092,7 +3065,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3128,7 +3101,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3143,7 +3116,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3184,13 @@
         <v>164905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>230</v>
@@ -3226,13 +3199,13 @@
         <v>154723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>480</v>
@@ -3241,13 +3214,13 @@
         <v>319628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3235,13 @@
         <v>131035</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -3277,13 +3250,13 @@
         <v>119094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>372</v>
@@ -3292,13 +3265,13 @@
         <v>250129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3286,13 @@
         <v>9802</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3328,13 +3301,13 @@
         <v>14575</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -3343,13 +3316,13 @@
         <v>24377</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3337,13 @@
         <v>3988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3379,13 +3352,13 @@
         <v>2253</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3394,13 +3367,13 @@
         <v>6241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,7 +3394,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3436,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3451,7 +3424,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3480,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768025F-FEAC-4930-ABA4-071F91032718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB2F8E2-0175-44CA-8BD3-2D216212FE07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,13 +3623,13 @@
         <v>19195</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3665,13 +3638,13 @@
         <v>18370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3680,13 +3653,13 @@
         <v>37565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3674,13 @@
         <v>23485</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3716,13 +3689,13 @@
         <v>29350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>75</v>
@@ -3731,13 +3704,13 @@
         <v>52834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3725,13 @@
         <v>1251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3767,13 +3740,13 @@
         <v>3250</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3782,13 +3755,13 @@
         <v>4502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3776,13 @@
         <v>1231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3818,13 +3791,13 @@
         <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3833,13 +3806,13 @@
         <v>1887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3875,7 +3848,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3890,7 +3863,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3931,13 @@
         <v>101802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -3973,13 +3946,13 @@
         <v>70248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>248</v>
@@ -3988,13 +3961,13 @@
         <v>172051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +3982,13 @@
         <v>107645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4024,13 +3997,13 @@
         <v>115033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -4039,13 +4012,13 @@
         <v>222678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4033,13 @@
         <v>11124</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -4075,13 +4048,13 @@
         <v>9073</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -4090,13 +4063,13 @@
         <v>20198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4084,13 @@
         <v>3586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4126,13 +4099,13 @@
         <v>4014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4141,13 +4114,13 @@
         <v>7600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4135,13 @@
         <v>1294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4177,13 +4150,13 @@
         <v>678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4192,13 +4165,13 @@
         <v>1973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4227,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4266,13 +4239,13 @@
         <v>25114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4281,13 +4254,13 @@
         <v>24681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4296,13 +4269,13 @@
         <v>49795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4290,13 @@
         <v>26459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4332,13 +4305,13 @@
         <v>29152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4347,13 +4320,13 @@
         <v>55611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4341,13 @@
         <v>2351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4383,13 +4356,13 @@
         <v>5546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4398,13 +4371,13 @@
         <v>7897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4392,13 @@
         <v>2228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4434,13 +4407,13 @@
         <v>747</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4449,13 +4422,13 @@
         <v>2975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4449,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4491,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4506,7 +4479,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4547,13 @@
         <v>146112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -4589,13 +4562,13 @@
         <v>113298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -4604,13 +4577,13 @@
         <v>259410</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4598,13 @@
         <v>157589</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>247</v>
@@ -4640,13 +4613,13 @@
         <v>173535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>476</v>
@@ -4655,13 +4628,13 @@
         <v>331123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4649,13 @@
         <v>14726</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -4691,13 +4664,13 @@
         <v>17869</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -4706,13 +4679,13 @@
         <v>32596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4700,13 @@
         <v>7044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4742,13 +4715,13 @@
         <v>5417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4757,13 +4730,13 @@
         <v>12461</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4751,13 @@
         <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4793,13 +4766,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4808,13 +4781,13 @@
         <v>1973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4843,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4889,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F500B998-6D08-469E-A379-E2F7AF9AE3B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC445-D39D-4D17-8FAA-D96A359DD977}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4906,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5013,13 +4986,13 @@
         <v>18028</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5028,13 +5001,13 @@
         <v>14590</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -5043,13 +5016,13 @@
         <v>32617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5037,13 @@
         <v>14942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5079,13 +5052,13 @@
         <v>14810</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -5094,13 +5067,13 @@
         <v>29752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5088,13 @@
         <v>2942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5130,13 +5103,13 @@
         <v>1206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5145,13 +5118,13 @@
         <v>4149</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5139,13 @@
         <v>727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5187,7 +5160,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5196,13 +5169,13 @@
         <v>727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5196,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5238,7 +5211,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5253,7 +5226,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5294,13 @@
         <v>125603</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -5336,13 +5309,13 @@
         <v>136312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -5351,13 +5324,13 @@
         <v>261914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5345,13 @@
         <v>93473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -5387,13 +5360,13 @@
         <v>94314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -5402,13 +5375,13 @@
         <v>187787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5396,13 @@
         <v>13832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5438,13 +5411,13 @@
         <v>10871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -5453,10 +5426,10 @@
         <v>24703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>360</v>
@@ -5480,7 +5453,7 @@
         <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5495,7 +5468,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5504,13 +5477,13 @@
         <v>4714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5498,13 @@
         <v>700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5540,13 +5513,13 @@
         <v>1244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5555,13 +5528,13 @@
         <v>1943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,7 +5590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5629,13 +5602,13 @@
         <v>45993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5644,13 +5617,13 @@
         <v>34314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -5659,13 +5632,13 @@
         <v>80307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5653,13 @@
         <v>26225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5695,13 +5668,13 @@
         <v>30028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -5710,13 +5683,13 @@
         <v>56254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5704,13 @@
         <v>1941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5746,13 +5719,13 @@
         <v>6121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5761,13 +5734,13 @@
         <v>8062</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5755,13 @@
         <v>1342</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5797,13 +5770,13 @@
         <v>626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5812,13 +5785,13 @@
         <v>1969</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5812,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5854,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5869,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5910,13 @@
         <v>189624</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
@@ -5952,13 +5925,13 @@
         <v>185215</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>524</v>
@@ -5967,13 +5940,13 @@
         <v>374839</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5961,13 @@
         <v>134640</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -6003,13 +5976,13 @@
         <v>139153</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>385</v>
@@ -6018,13 +5991,13 @@
         <v>273792</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6012,13 @@
         <v>18716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -6054,13 +6027,13 @@
         <v>18198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -6069,13 +6042,13 @@
         <v>36914</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6063,13 @@
         <v>5524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6105,13 +6078,13 @@
         <v>1884</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6120,13 +6093,13 @@
         <v>7409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6114,13 @@
         <v>700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6156,13 +6129,13 @@
         <v>1244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6171,13 +6144,13 @@
         <v>1943</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,7 +6206,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6252,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4F48F0-E273-4010-8ADD-68804DEC06D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B133D5D-B9EF-432E-A6F3-38838231BF90}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6269,7 +6242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6376,13 +6349,13 @@
         <v>10001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6391,13 +6364,13 @@
         <v>8081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6406,13 +6379,13 @@
         <v>18081</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6400,13 @@
         <v>2878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -6442,13 +6415,13 @@
         <v>5439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6457,13 +6430,13 @@
         <v>8316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6451,13 @@
         <v>1487</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6493,13 +6466,13 @@
         <v>391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6508,13 +6481,13 @@
         <v>1878</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>465</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6502,13 @@
         <v>2552</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6550,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6559,13 +6532,13 @@
         <v>2552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,7 +6559,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6601,7 +6574,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6616,7 +6589,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6657,13 @@
         <v>108510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -6699,13 +6672,13 @@
         <v>87718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -6714,13 +6687,13 @@
         <v>196227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6708,13 @@
         <v>77373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -6750,13 +6723,13 @@
         <v>50228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
@@ -6765,13 +6738,13 @@
         <v>127601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6759,13 @@
         <v>7664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6801,13 +6774,13 @@
         <v>6405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>487</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -6816,13 +6789,13 @@
         <v>14069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6810,13 @@
         <v>4414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6852,13 +6825,13 @@
         <v>3267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -6867,13 +6840,13 @@
         <v>7681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>505</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6867,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6903,13 +6876,13 @@
         <v>597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6918,13 +6891,13 @@
         <v>597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,7 +6953,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6992,13 +6965,13 @@
         <v>24942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7007,13 +6980,13 @@
         <v>18916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7022,13 +6995,13 @@
         <v>43859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7016,13 @@
         <v>20966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>508</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -7058,13 +7031,13 @@
         <v>18299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -7073,13 +7046,13 @@
         <v>39265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7067,13 @@
         <v>5127</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -7109,13 +7082,13 @@
         <v>3332</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -7124,13 +7097,13 @@
         <v>8459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7118,13 @@
         <v>2124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7166,7 +7139,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7175,13 +7148,13 @@
         <v>2124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,7 +7190,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7232,7 +7205,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7273,13 @@
         <v>143453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>539</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>140</v>
@@ -7315,13 +7288,13 @@
         <v>114715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>299</v>
@@ -7330,13 +7303,13 @@
         <v>258168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7324,13 @@
         <v>101217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -7366,13 +7339,13 @@
         <v>73966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>539</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
@@ -7381,13 +7354,13 @@
         <v>175183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7375,13 @@
         <v>14278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -7417,13 +7390,13 @@
         <v>10128</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -7432,13 +7405,13 @@
         <v>24406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>563</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7426,13 @@
         <v>9090</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>565</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7468,13 +7441,13 @@
         <v>3267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7483,13 +7456,13 @@
         <v>12357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7483,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7519,13 +7492,13 @@
         <v>597</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7534,13 +7507,13 @@
         <v>597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>77</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,7 +7569,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE091BD-C389-4B54-A3A0-9EDA65EDA0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4465780D-76EC-4BCB-A41B-01BCFDA8D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39ED4454-FB0D-4B3A-B202-BB74167D48F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B90B9859-E1D7-4E0E-B0B5-1C503820F9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="565">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1657 +74,1666 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>53,54%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>42,05%</t>
   </si>
   <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 30,1%)</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6071787A-0914-46CC-9A86-00C5FF65D2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D239AE0-F6CF-463A-86AE-7039EE423B50}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2254,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>20705</v>
+        <v>27075</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2269,10 +2278,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>27075</v>
+        <v>20705</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2305,10 +2314,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>21839</v>
+        <v>16261</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2320,10 +2329,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>16261</v>
+        <v>21839</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2356,10 +2365,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>680</v>
+        <v>1413</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2371,10 +2380,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1413</v>
+        <v>680</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2407,31 +2416,31 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>43</v>
@@ -2467,10 +2476,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2482,10 +2491,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2497,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -2509,25 +2518,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -2562,10 +2571,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7">
-        <v>117458</v>
+        <v>100726</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2577,10 +2586,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>100726</v>
+        <v>117458</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2613,10 +2622,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>88912</v>
+        <v>80407</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2628,10 +2637,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I11" s="7">
-        <v>80407</v>
+        <v>88912</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2640,7 +2649,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -2649,13 +2658,13 @@
         <v>169319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,34 +2673,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8264</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7107</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8264</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2700,13 +2709,13 @@
         <v>15371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,34 +2724,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3988</v>
+        <v>989</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>989</v>
+        <v>3988</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2751,13 +2760,13 @@
         <v>4977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2790,10 +2799,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2805,7 +2814,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>86</v>
@@ -2817,25 +2826,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217465</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -2870,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>26741</v>
+        <v>26922</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2885,10 +2894,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>26922</v>
+        <v>26741</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2921,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>20283</v>
+        <v>22426</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2936,19 +2945,19 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>22426</v>
+        <v>20283</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -2957,13 +2966,13 @@
         <v>42710</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,34 +2981,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4898</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2016</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4898</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3008,13 +3017,13 @@
         <v>6914</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +3041,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3047,10 +3056,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3062,10 +3071,10 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,10 +3092,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3098,10 +3107,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3113,10 +3122,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,25 +3134,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -3178,34 +3187,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>230</v>
+      </c>
+      <c r="D22" s="7">
+        <v>154723</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7">
         <v>250</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>164905</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="7">
-        <v>230</v>
-      </c>
-      <c r="I22" s="7">
-        <v>154723</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>480</v>
@@ -3214,13 +3223,13 @@
         <v>319628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,34 +3238,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>119094</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="7">
         <v>195</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>131035</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="7">
-        <v>177</v>
-      </c>
-      <c r="I23" s="7">
-        <v>119094</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>372</v>
@@ -3265,13 +3274,13 @@
         <v>250129</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,34 +3289,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14575</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9802</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="7">
-        <v>21</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14575</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -3316,13 +3325,13 @@
         <v>24377</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,34 +3340,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3988</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2253</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3367,13 +3376,13 @@
         <v>6241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,10 +3400,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3406,10 +3415,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3421,10 +3430,10 @@
         <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,25 +3442,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309730</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -3480,7 +3489,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB2F8E2-0175-44CA-8BD3-2D216212FE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC2B38-98A0-4236-9692-C2F175BDBDC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3617,34 +3626,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18370</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
         <v>28</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19195</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>18370</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3653,13 +3662,13 @@
         <v>37565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,34 +3677,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29350</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
         <v>33</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>23485</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="7">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29350</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>75</v>
@@ -3704,13 +3713,13 @@
         <v>52834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,34 +3728,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3250</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1251</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3250</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3755,13 +3764,13 @@
         <v>4502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,34 +3779,34 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1231</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>1231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3806,13 +3815,13 @@
         <v>1887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,10 +3839,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3845,10 +3854,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3860,10 +3869,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,25 +3881,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -3925,34 +3934,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7">
+        <v>70248</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
         <v>147</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>101802</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="7">
-        <v>101</v>
-      </c>
-      <c r="I10" s="7">
-        <v>70248</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>248</v>
@@ -3961,13 +3970,13 @@
         <v>172051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,34 +3985,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>164</v>
+      </c>
+      <c r="D11" s="7">
+        <v>115033</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="7">
         <v>158</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>107645</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="7">
-        <v>164</v>
-      </c>
-      <c r="I11" s="7">
-        <v>115033</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -4012,13 +4021,13 @@
         <v>222678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,34 +4036,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9073</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="7">
         <v>17</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>11124</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9073</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -4063,13 +4072,13 @@
         <v>20198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,34 +4087,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4014</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3586</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4014</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4114,13 +4123,13 @@
         <v>7600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,34 +4138,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1294</v>
+        <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>678</v>
+        <v>1294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4165,13 +4174,13 @@
         <v>1973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,25 +4189,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199047</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>329</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>225452</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199046</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -4233,34 +4242,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24681</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
         <v>38</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25114</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="7">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24681</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4269,13 +4278,13 @@
         <v>49795</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,34 +4293,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29152</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26459</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29152</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4320,13 +4329,13 @@
         <v>55611</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,34 +4344,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5546</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2351</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5546</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4371,13 +4380,13 @@
         <v>7897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,34 +4395,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>747</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2228</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>747</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4422,13 +4431,13 @@
         <v>2975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4461,10 +4470,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4476,10 +4485,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,25 +4497,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -4541,34 +4550,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>162</v>
+      </c>
+      <c r="D22" s="7">
+        <v>113298</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="7">
         <v>213</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>146112</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="7">
-        <v>162</v>
-      </c>
-      <c r="I22" s="7">
-        <v>113298</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -4577,13 +4586,13 @@
         <v>259410</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,34 +4601,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>247</v>
+      </c>
+      <c r="D23" s="7">
+        <v>173535</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="7">
         <v>229</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>157589</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H23" s="7">
-        <v>247</v>
-      </c>
-      <c r="I23" s="7">
-        <v>173535</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>476</v>
@@ -4628,13 +4637,13 @@
         <v>331123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,34 +4652,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17869</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="7">
         <v>21</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>14726</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="H24" s="7">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17869</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -4679,13 +4688,13 @@
         <v>32596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,34 +4703,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5417</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>7044</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5417</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4730,13 +4739,13 @@
         <v>12461</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,34 +4754,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1294</v>
+        <v>678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>678</v>
+        <v>1294</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4784,10 +4793,10 @@
         <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,25 +4805,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326766</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -4843,7 +4852,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC445-D39D-4D17-8FAA-D96A359DD977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893F94B-8E3F-40F4-9A52-42796D1A6041}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,7 +4888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4980,34 +4989,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14590</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="7">
         <v>24</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>18028</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14590</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -5016,13 +5025,13 @@
         <v>32617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,34 +5040,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14810</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14942</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14810</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -5067,13 +5076,13 @@
         <v>29752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,34 +5091,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1206</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2942</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1206</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5118,13 +5127,13 @@
         <v>4149</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,34 +5142,34 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>727</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5169,13 +5178,13 @@
         <v>727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,10 +5202,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5208,10 +5217,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5223,10 +5232,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,25 +5244,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -5288,34 +5297,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>196</v>
+      </c>
+      <c r="D10" s="7">
+        <v>136312</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="7">
         <v>172</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>125603</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H10" s="7">
-        <v>196</v>
-      </c>
-      <c r="I10" s="7">
-        <v>136312</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -5324,13 +5333,13 @@
         <v>261914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,34 +5348,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>134</v>
+      </c>
+      <c r="D11" s="7">
+        <v>94314</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="7">
         <v>128</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>93473</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H11" s="7">
-        <v>134</v>
-      </c>
-      <c r="I11" s="7">
-        <v>94314</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -5375,13 +5384,13 @@
         <v>187787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,34 +5399,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10871</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>13832</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10871</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -5426,13 +5435,13 @@
         <v>24703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,34 +5450,34 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1258</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3456</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1258</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5477,13 +5486,13 @@
         <v>4714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +5501,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>700</v>
+        <v>1244</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>364</v>
@@ -5504,22 +5513,22 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>700</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5528,13 +5537,13 @@
         <v>1943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,25 +5552,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -5596,34 +5605,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34314</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" s="7">
         <v>63</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>45993</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>34314</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -5632,13 +5641,13 @@
         <v>80307</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,34 +5656,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30028</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="7">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26225</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30028</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -5683,13 +5692,13 @@
         <v>56254</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,34 +5707,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6121</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1941</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6121</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5734,13 +5743,13 @@
         <v>8062</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,34 +5758,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1342</v>
+        <v>626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>626</v>
+        <v>1342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5785,13 +5794,13 @@
         <v>1969</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,10 +5818,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5824,10 +5833,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5839,10 +5848,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,25 +5860,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -5904,34 +5913,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>265</v>
+      </c>
+      <c r="D22" s="7">
+        <v>185215</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H22" s="7">
         <v>259</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>189624</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="7">
-        <v>265</v>
-      </c>
-      <c r="I22" s="7">
-        <v>185215</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>524</v>
@@ -5940,13 +5949,13 @@
         <v>374839</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,34 +5964,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>198</v>
+      </c>
+      <c r="D23" s="7">
+        <v>139153</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" s="7">
         <v>187</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>134640</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H23" s="7">
-        <v>198</v>
-      </c>
-      <c r="I23" s="7">
-        <v>139153</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M23" s="7">
         <v>385</v>
@@ -5991,13 +6000,13 @@
         <v>273792</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6015,13 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>18716</v>
+        <v>18198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>419</v>
@@ -6021,19 +6030,19 @@
         <v>420</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>18198</v>
+        <v>18716</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -6042,7 +6051,7 @@
         <v>36914</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>190</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>424</v>
@@ -6057,10 +6066,10 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>5524</v>
+        <v>1884</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>426</v>
@@ -6069,22 +6078,22 @@
         <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5524</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="K25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6093,13 +6102,13 @@
         <v>7409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,34 +6117,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>700</v>
+        <v>1244</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1244</v>
+        <v>700</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6144,13 +6153,13 @@
         <v>1943</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,25 +6168,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -6206,7 +6215,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +6234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B133D5D-B9EF-432E-A6F3-38838231BF90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D96018-FB7B-43B5-887D-8CF677C48803}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6343,49 +6352,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6799</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>10001</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
       <c r="I4" s="7">
-        <v>8081</v>
+        <v>9786</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>18081</v>
+        <v>16585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,49 +6403,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5217</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
-        <v>2878</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
       <c r="I5" s="7">
-        <v>5439</v>
+        <v>2840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>8316</v>
+        <v>8058</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,49 +6454,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1487</v>
+        <v>391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>391</v>
+        <v>1557</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1878</v>
+        <v>1948</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,49 +6505,49 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>462</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2552</v>
+        <v>2571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,10 +6565,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6571,10 +6580,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6586,10 +6595,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,25 +6607,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -6631,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>48</v>
@@ -6651,49 +6660,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>107</v>
+      </c>
+      <c r="D10" s="7">
+        <v>101078</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H10" s="7">
         <v>116</v>
       </c>
-      <c r="D10" s="7">
-        <v>108510</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H10" s="7">
-        <v>107</v>
-      </c>
       <c r="I10" s="7">
-        <v>87718</v>
+        <v>113129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
       </c>
       <c r="N10" s="7">
-        <v>196227</v>
+        <v>214207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,49 +6711,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7">
+        <v>48063</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="7">
         <v>87</v>
       </c>
-      <c r="D11" s="7">
-        <v>77373</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H11" s="7">
-        <v>73</v>
-      </c>
       <c r="I11" s="7">
-        <v>50228</v>
+        <v>78299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>127601</v>
+        <v>126362</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>483</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,49 +6762,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6351</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>7664</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
       <c r="I12" s="7">
-        <v>6405</v>
+        <v>7569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>14069</v>
+        <v>13920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,49 +6813,49 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3238</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>4414</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
       <c r="I13" s="7">
-        <v>3267</v>
+        <v>4572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>493</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>7681</v>
+        <v>7809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,49 +6864,49 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,25 +6915,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159319</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
         <v>218</v>
       </c>
-      <c r="D15" s="7">
-        <v>197961</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148215</v>
+        <v>203568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>48</v>
@@ -6939,7 +6948,7 @@
         <v>413</v>
       </c>
       <c r="N15" s="7">
-        <v>346175</v>
+        <v>362887</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>48</v>
@@ -6959,49 +6968,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18013</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
-        <v>24942</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
       <c r="I16" s="7">
-        <v>18916</v>
+        <v>24784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>43859</v>
+        <v>42797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,49 +7019,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17464</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
-        <v>20966</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
       <c r="I17" s="7">
-        <v>18299</v>
+        <v>20605</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
       </c>
       <c r="N17" s="7">
-        <v>39265</v>
+        <v>38069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,49 +7070,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3275</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
-        <v>5127</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
       <c r="I18" s="7">
-        <v>3332</v>
+        <v>5261</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>8459</v>
+        <v>8536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>525</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>526</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,49 +7121,49 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>2124</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>2044</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2124</v>
+        <v>2044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,10 +7181,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7187,10 +7196,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>524</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7202,10 +7211,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,25 +7223,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>48</v>
@@ -7247,7 +7256,7 @@
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>48</v>
@@ -7267,49 +7276,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>140</v>
+      </c>
+      <c r="D22" s="7">
+        <v>125890</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H22" s="7">
         <v>159</v>
       </c>
-      <c r="D22" s="7">
-        <v>143453</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="H22" s="7">
-        <v>140</v>
-      </c>
       <c r="I22" s="7">
-        <v>114715</v>
+        <v>147699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>531</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
         <v>299</v>
       </c>
       <c r="N22" s="7">
-        <v>258168</v>
+        <v>273589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,49 +7327,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>110</v>
+      </c>
+      <c r="D23" s="7">
+        <v>70744</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H23" s="7">
         <v>120</v>
       </c>
-      <c r="D23" s="7">
-        <v>101217</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H23" s="7">
-        <v>110</v>
-      </c>
       <c r="I23" s="7">
-        <v>73966</v>
+        <v>101744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>230</v>
       </c>
       <c r="N23" s="7">
-        <v>175183</v>
+        <v>172488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,49 +7378,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10017</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
-        <v>14278</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
       <c r="I24" s="7">
-        <v>10128</v>
+        <v>14386</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>24406</v>
+        <v>24403</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,49 +7429,49 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3238</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" s="7">
         <v>11</v>
       </c>
-      <c r="D25" s="7">
-        <v>9090</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
       <c r="I25" s="7">
-        <v>3267</v>
+        <v>9186</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>554</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>12357</v>
+        <v>12424</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,49 +7480,49 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>559</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>560</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,25 +7531,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210479</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7">
-        <v>270</v>
-      </c>
       <c r="I27" s="7">
-        <v>202673</v>
+        <v>273016</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>48</v>
@@ -7555,7 +7564,7 @@
         <v>578</v>
       </c>
       <c r="N27" s="7">
-        <v>470710</v>
+        <v>483494</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>48</v>
@@ -7569,7 +7578,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
